--- a/natmiOut/OldD4/LR-pairs_lrc2p/Sema7a-Itgb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Sema7a-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.0932243637709</v>
+        <v>36.23889466666667</v>
       </c>
       <c r="H2">
-        <v>33.0932243637709</v>
+        <v>108.716684</v>
       </c>
       <c r="I2">
-        <v>0.6465303282159447</v>
+        <v>0.6211538114277946</v>
       </c>
       <c r="J2">
-        <v>0.6465303282159447</v>
+        <v>0.6348862200079015</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N2">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O2">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P2">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q2">
-        <v>4095.059096383333</v>
+        <v>5008.906874317679</v>
       </c>
       <c r="R2">
-        <v>4095.059096383333</v>
+        <v>45080.1618688591</v>
       </c>
       <c r="S2">
-        <v>0.1365618584110691</v>
+        <v>0.13971138440604</v>
       </c>
       <c r="T2">
-        <v>0.1365618584110691</v>
+        <v>0.1572358579940585</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.0932243637709</v>
+        <v>36.23889466666667</v>
       </c>
       <c r="H3">
-        <v>33.0932243637709</v>
+        <v>108.716684</v>
       </c>
       <c r="I3">
-        <v>0.6465303282159447</v>
+        <v>0.6211538114277946</v>
       </c>
       <c r="J3">
-        <v>0.6465303282159447</v>
+        <v>0.6348862200079015</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N3">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P3">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q3">
-        <v>4586.331059902847</v>
+        <v>5360.251824560572</v>
       </c>
       <c r="R3">
-        <v>4586.331059902847</v>
+        <v>48242.26642104515</v>
       </c>
       <c r="S3">
-        <v>0.1529447751759899</v>
+        <v>0.1495113049544117</v>
       </c>
       <c r="T3">
-        <v>0.1529447751759899</v>
+        <v>0.1682650158701163</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.0932243637709</v>
+        <v>36.23889466666667</v>
       </c>
       <c r="H4">
-        <v>33.0932243637709</v>
+        <v>108.716684</v>
       </c>
       <c r="I4">
-        <v>0.6465303282159447</v>
+        <v>0.6211538114277946</v>
       </c>
       <c r="J4">
-        <v>0.6465303282159447</v>
+        <v>0.6348862200079015</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N4">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O4">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P4">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q4">
-        <v>2359.543315861098</v>
+        <v>2691.557556160307</v>
       </c>
       <c r="R4">
-        <v>2359.543315861098</v>
+        <v>24224.01800544277</v>
       </c>
       <c r="S4">
-        <v>0.0786859511990898</v>
+        <v>0.07507451062981067</v>
       </c>
       <c r="T4">
-        <v>0.0786859511990898</v>
+        <v>0.08449136154900211</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>33.0932243637709</v>
+        <v>36.23889466666667</v>
       </c>
       <c r="H5">
-        <v>33.0932243637709</v>
+        <v>108.716684</v>
       </c>
       <c r="I5">
-        <v>0.6465303282159447</v>
+        <v>0.6211538114277946</v>
       </c>
       <c r="J5">
-        <v>0.6465303282159447</v>
+        <v>0.6348862200079015</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N5">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O5">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P5">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q5">
-        <v>2807.193037688104</v>
+        <v>3075.122205660548</v>
       </c>
       <c r="R5">
-        <v>2807.193037688104</v>
+        <v>27676.09985094493</v>
       </c>
       <c r="S5">
-        <v>0.09361415528383289</v>
+        <v>0.08577312203056585</v>
       </c>
       <c r="T5">
-        <v>0.09361415528383289</v>
+        <v>0.09653193612418348</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>33.0932243637709</v>
+        <v>36.23889466666667</v>
       </c>
       <c r="H6">
-        <v>33.0932243637709</v>
+        <v>108.716684</v>
       </c>
       <c r="I6">
-        <v>0.6465303282159447</v>
+        <v>0.6211538114277946</v>
       </c>
       <c r="J6">
-        <v>0.6465303282159447</v>
+        <v>0.6348862200079015</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N6">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O6">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P6">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q6">
-        <v>5539.277355736247</v>
+        <v>6133.653816515774</v>
       </c>
       <c r="R6">
-        <v>5539.277355736247</v>
+        <v>36801.92289909465</v>
       </c>
       <c r="S6">
-        <v>0.1847235881459631</v>
+        <v>0.1710834894069664</v>
       </c>
       <c r="T6">
-        <v>0.1847235881459631</v>
+        <v>0.1283620484705411</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.2320498443567</v>
+        <v>17.53747233333333</v>
       </c>
       <c r="H7">
-        <v>16.2320498443567</v>
+        <v>52.61241699999999</v>
       </c>
       <c r="I7">
-        <v>0.3171196737474294</v>
+        <v>0.3006015465664726</v>
       </c>
       <c r="J7">
-        <v>0.3171196737474294</v>
+        <v>0.307247216578179</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N7">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O7">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P7">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q7">
-        <v>2008.604620613835</v>
+        <v>2424.013384971972</v>
       </c>
       <c r="R7">
-        <v>2008.604620613835</v>
+        <v>21816.12046474775</v>
       </c>
       <c r="S7">
-        <v>0.06698286235877286</v>
+        <v>0.06761201083007529</v>
       </c>
       <c r="T7">
-        <v>0.06698286235877286</v>
+        <v>0.07609281504700958</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.2320498443567</v>
+        <v>17.53747233333333</v>
       </c>
       <c r="H8">
-        <v>16.2320498443567</v>
+        <v>52.61241699999999</v>
       </c>
       <c r="I8">
-        <v>0.3171196737474294</v>
+        <v>0.3006015465664726</v>
       </c>
       <c r="J8">
-        <v>0.3171196737474294</v>
+        <v>0.307247216578179</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N8">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P8">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q8">
-        <v>2249.57089550223</v>
+        <v>2594.043470078536</v>
       </c>
       <c r="R8">
-        <v>2249.57089550223</v>
+        <v>23346.39123070682</v>
       </c>
       <c r="S8">
-        <v>0.07501859555300548</v>
+        <v>0.07235459023451885</v>
       </c>
       <c r="T8">
-        <v>0.07501859555300548</v>
+        <v>0.0814302722981339</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.2320498443567</v>
+        <v>17.53747233333333</v>
       </c>
       <c r="H9">
-        <v>16.2320498443567</v>
+        <v>52.61241699999999</v>
       </c>
       <c r="I9">
-        <v>0.3171196737474294</v>
+        <v>0.3006015465664726</v>
       </c>
       <c r="J9">
-        <v>0.3171196737474294</v>
+        <v>0.307247216578179</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N9">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O9">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P9">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q9">
-        <v>1157.343397305992</v>
+        <v>1302.553971607587</v>
       </c>
       <c r="R9">
-        <v>1157.343397305992</v>
+        <v>11722.98574446828</v>
       </c>
       <c r="S9">
-        <v>0.03859503890810072</v>
+        <v>0.0363316035221101</v>
       </c>
       <c r="T9">
-        <v>0.03859503890810072</v>
+        <v>0.04088879998137052</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.2320498443567</v>
+        <v>17.53747233333333</v>
       </c>
       <c r="H10">
-        <v>16.2320498443567</v>
+        <v>52.61241699999999</v>
       </c>
       <c r="I10">
-        <v>0.3171196737474294</v>
+        <v>0.3006015465664726</v>
       </c>
       <c r="J10">
-        <v>0.3171196737474294</v>
+        <v>0.307247216578179</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N10">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O10">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P10">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q10">
-        <v>1376.913195571499</v>
+        <v>1488.176477220115</v>
       </c>
       <c r="R10">
-        <v>1376.913195571499</v>
+        <v>13393.58829498104</v>
       </c>
       <c r="S10">
-        <v>0.04591724330035558</v>
+        <v>0.04150909591451498</v>
       </c>
       <c r="T10">
-        <v>0.04591724330035558</v>
+        <v>0.04671572283406753</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>16.2320498443567</v>
+        <v>17.53747233333333</v>
       </c>
       <c r="H11">
-        <v>16.2320498443567</v>
+        <v>52.61241699999999</v>
       </c>
       <c r="I11">
-        <v>0.3171196737474294</v>
+        <v>0.3006015465664726</v>
       </c>
       <c r="J11">
-        <v>0.3171196737474294</v>
+        <v>0.307247216578179</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N11">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O11">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P11">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q11">
-        <v>2716.985965213504</v>
+        <v>2968.324092079274</v>
       </c>
       <c r="R11">
-        <v>2716.985965213504</v>
+        <v>17809.94455247564</v>
       </c>
       <c r="S11">
-        <v>0.09060593362719475</v>
+        <v>0.08279424606525339</v>
       </c>
       <c r="T11">
-        <v>0.09060593362719475</v>
+        <v>0.06211960641759753</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.86060666940114</v>
+        <v>0.4274783333333333</v>
       </c>
       <c r="H12">
-        <v>1.86060666940114</v>
+        <v>1.282435</v>
       </c>
       <c r="I12">
-        <v>0.03634999803662596</v>
+        <v>0.007327204609721206</v>
       </c>
       <c r="J12">
-        <v>0.03634999803662596</v>
+        <v>0.007489193742846619</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N12">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O12">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P12">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q12">
-        <v>230.2372891371662</v>
+        <v>59.08566423315111</v>
       </c>
       <c r="R12">
-        <v>230.2372891371662</v>
+        <v>531.77097809836</v>
       </c>
       <c r="S12">
-        <v>0.007677943428915746</v>
+        <v>0.001648052190966015</v>
       </c>
       <c r="T12">
-        <v>0.007677943428915746</v>
+        <v>0.001854772976212284</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>1.86060666940114</v>
+        <v>0.4274783333333333</v>
       </c>
       <c r="H13">
-        <v>1.86060666940114</v>
+        <v>1.282435</v>
       </c>
       <c r="I13">
-        <v>0.03634999803662596</v>
+        <v>0.007327204609721206</v>
       </c>
       <c r="J13">
-        <v>0.03634999803662596</v>
+        <v>0.007489193742846619</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N13">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P13">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q13">
-        <v>257.8581665036788</v>
+        <v>63.23017126451666</v>
       </c>
       <c r="R13">
-        <v>257.8581665036788</v>
+        <v>569.0715413806499</v>
       </c>
       <c r="S13">
-        <v>0.008599043284946276</v>
+        <v>0.001763653225195968</v>
       </c>
       <c r="T13">
-        <v>0.008599043284946276</v>
+        <v>0.001984874240897493</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.86060666940114</v>
+        <v>0.4274783333333333</v>
       </c>
       <c r="H14">
-        <v>1.86060666940114</v>
+        <v>1.282435</v>
       </c>
       <c r="I14">
-        <v>0.03634999803662596</v>
+        <v>0.007327204609721206</v>
       </c>
       <c r="J14">
-        <v>0.03634999803662596</v>
+        <v>0.007489193742846619</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N14">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O14">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P14">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q14">
-        <v>132.6610541775503</v>
+        <v>31.74993466995778</v>
       </c>
       <c r="R14">
-        <v>132.6610541775503</v>
+        <v>285.74941202962</v>
       </c>
       <c r="S14">
-        <v>0.004423975251848706</v>
+        <v>0.0008855879014810758</v>
       </c>
       <c r="T14">
-        <v>0.004423975251848706</v>
+        <v>0.0009966702005746839</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.86060666940114</v>
+        <v>0.4274783333333333</v>
       </c>
       <c r="H15">
-        <v>1.86060666940114</v>
+        <v>1.282435</v>
       </c>
       <c r="I15">
-        <v>0.03634999803662596</v>
+        <v>0.007327204609721206</v>
       </c>
       <c r="J15">
-        <v>0.03634999803662596</v>
+        <v>0.007489193742846619</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N15">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O15">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P15">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q15">
-        <v>157.8293499238759</v>
+        <v>36.27450912517057</v>
       </c>
       <c r="R15">
-        <v>157.8293499238759</v>
+        <v>326.470582126535</v>
       </c>
       <c r="S15">
-        <v>0.005263286519222876</v>
+        <v>0.001011790000431477</v>
       </c>
       <c r="T15">
-        <v>0.005263286519222876</v>
+        <v>0.00113870225754326</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.4274783333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.282435</v>
+      </c>
+      <c r="I16">
+        <v>0.007327204609721206</v>
+      </c>
+      <c r="J16">
+        <v>0.007489193742846619</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>169.2560955</v>
+      </c>
+      <c r="N16">
+        <v>338.512191</v>
+      </c>
+      <c r="O16">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P16">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q16">
+        <v>72.35331361084751</v>
+      </c>
+      <c r="R16">
+        <v>434.119881665085</v>
+      </c>
+      <c r="S16">
+        <v>0.002018121291646671</v>
+      </c>
+      <c r="T16">
+        <v>0.001514174067618899</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.351698</v>
+      </c>
+      <c r="H17">
+        <v>1.055094</v>
+      </c>
+      <c r="I17">
+        <v>0.006028289636893243</v>
+      </c>
+      <c r="J17">
+        <v>0.00616156248302254</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>138.2190853333333</v>
+      </c>
+      <c r="N17">
+        <v>414.657256</v>
+      </c>
+      <c r="O17">
+        <v>0.2249223651785973</v>
+      </c>
+      <c r="P17">
+        <v>0.2476599003709697</v>
+      </c>
+      <c r="Q17">
+        <v>48.61137587356267</v>
+      </c>
+      <c r="R17">
+        <v>437.502382862064</v>
+      </c>
+      <c r="S17">
+        <v>0.001355897163111656</v>
+      </c>
+      <c r="T17">
+        <v>0.001525971950674867</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.351698</v>
+      </c>
+      <c r="H18">
+        <v>1.055094</v>
+      </c>
+      <c r="I18">
+        <v>0.006028289636893243</v>
+      </c>
+      <c r="J18">
+        <v>0.00616156248302254</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>147.91433</v>
+      </c>
+      <c r="N18">
+        <v>443.74299</v>
+      </c>
+      <c r="O18">
+        <v>0.2406993279341593</v>
+      </c>
+      <c r="P18">
+        <v>0.2650317656414439</v>
+      </c>
+      <c r="Q18">
+        <v>52.02117403233999</v>
+      </c>
+      <c r="R18">
+        <v>468.19056629106</v>
+      </c>
+      <c r="S18">
+        <v>0.001451005264192661</v>
+      </c>
+      <c r="T18">
+        <v>0.001633009783985543</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.351698</v>
+      </c>
+      <c r="H19">
+        <v>1.055094</v>
+      </c>
+      <c r="I19">
+        <v>0.006028289636893243</v>
+      </c>
+      <c r="J19">
+        <v>0.00616156248302254</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>74.27261733333333</v>
+      </c>
+      <c r="N19">
+        <v>222.817852</v>
+      </c>
+      <c r="O19">
+        <v>0.1208629960061633</v>
+      </c>
+      <c r="P19">
+        <v>0.1330811078998542</v>
+      </c>
+      <c r="Q19">
+        <v>26.12153097089866</v>
+      </c>
+      <c r="R19">
+        <v>235.093778738088</v>
+      </c>
+      <c r="S19">
+        <v>0.0007285971463078239</v>
+      </c>
+      <c r="T19">
+        <v>0.0008199875616348162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.351698</v>
+      </c>
+      <c r="H20">
+        <v>1.055094</v>
+      </c>
+      <c r="I20">
+        <v>0.006028289636893243</v>
+      </c>
+      <c r="J20">
+        <v>0.00616156248302254</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>84.85695366666668</v>
+      </c>
+      <c r="N20">
+        <v>254.570861</v>
+      </c>
+      <c r="O20">
+        <v>0.138086767645209</v>
+      </c>
+      <c r="P20">
+        <v>0.1520460408212704</v>
+      </c>
+      <c r="Q20">
+        <v>29.84402089065934</v>
+      </c>
+      <c r="R20">
+        <v>268.596188015934</v>
+      </c>
+      <c r="S20">
+        <v>0.0008324270303876987</v>
+      </c>
+      <c r="T20">
+        <v>0.0009368411808164536</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.351698</v>
+      </c>
+      <c r="H21">
+        <v>1.055094</v>
+      </c>
+      <c r="I21">
+        <v>0.006028289636893243</v>
+      </c>
+      <c r="J21">
+        <v>0.00616156248302254</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>169.2560955</v>
+      </c>
+      <c r="N21">
+        <v>338.512191</v>
+      </c>
+      <c r="O21">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P21">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q21">
+        <v>59.52703027515901</v>
+      </c>
+      <c r="R21">
+        <v>357.162181650954</v>
+      </c>
+      <c r="S21">
+        <v>0.001660363032893404</v>
+      </c>
+      <c r="T21">
+        <v>0.00124575200591086</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.7857145</v>
+      </c>
+      <c r="H22">
+        <v>7.571429</v>
+      </c>
+      <c r="I22">
+        <v>0.06488914775911858</v>
+      </c>
+      <c r="J22">
+        <v>0.04421580718805042</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>138.2190853333333</v>
+      </c>
+      <c r="N22">
+        <v>414.657256</v>
+      </c>
+      <c r="O22">
+        <v>0.2249223651785973</v>
+      </c>
+      <c r="P22">
+        <v>0.2476599003709697</v>
+      </c>
+      <c r="Q22">
+        <v>523.2579955231374</v>
+      </c>
+      <c r="R22">
+        <v>3139.547973138824</v>
+      </c>
+      <c r="S22">
+        <v>0.01459502058840443</v>
+      </c>
+      <c r="T22">
+        <v>0.01095048240301457</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.7857145</v>
+      </c>
+      <c r="H23">
+        <v>7.571429</v>
+      </c>
+      <c r="I23">
+        <v>0.06488914775911858</v>
+      </c>
+      <c r="J23">
+        <v>0.04421580718805042</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>147.91433</v>
+      </c>
+      <c r="N23">
+        <v>443.74299</v>
+      </c>
+      <c r="O23">
+        <v>0.2406993279341593</v>
+      </c>
+      <c r="P23">
+        <v>0.2650317656414439</v>
+      </c>
+      <c r="Q23">
+        <v>559.961423838785</v>
+      </c>
+      <c r="R23">
+        <v>3359.76854303271</v>
+      </c>
+      <c r="S23">
+        <v>0.0156187742558402</v>
+      </c>
+      <c r="T23">
+        <v>0.01171859344831065</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.86060666940114</v>
-      </c>
-      <c r="H16">
-        <v>1.86060666940114</v>
-      </c>
-      <c r="I16">
-        <v>0.03634999803662596</v>
-      </c>
-      <c r="J16">
-        <v>0.03634999803662596</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>167.384032901926</v>
-      </c>
-      <c r="N16">
-        <v>167.384032901926</v>
-      </c>
-      <c r="O16">
-        <v>0.2857152713248502</v>
-      </c>
-      <c r="P16">
-        <v>0.2857152713248502</v>
-      </c>
-      <c r="Q16">
-        <v>311.4358479685833</v>
-      </c>
-      <c r="R16">
-        <v>311.4358479685833</v>
-      </c>
-      <c r="S16">
-        <v>0.01038574955169236</v>
-      </c>
-      <c r="T16">
-        <v>0.01038574955169236</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.7857145</v>
+      </c>
+      <c r="H24">
+        <v>7.571429</v>
+      </c>
+      <c r="I24">
+        <v>0.06488914775911858</v>
+      </c>
+      <c r="J24">
+        <v>0.04421580718805042</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>74.27261733333333</v>
+      </c>
+      <c r="N24">
+        <v>222.817852</v>
+      </c>
+      <c r="O24">
+        <v>0.1208629960061633</v>
+      </c>
+      <c r="P24">
+        <v>0.1330811078998542</v>
+      </c>
+      <c r="Q24">
+        <v>281.1749243917513</v>
+      </c>
+      <c r="R24">
+        <v>1687.049546350508</v>
+      </c>
+      <c r="S24">
+        <v>0.007842696806453692</v>
+      </c>
+      <c r="T24">
+        <v>0.005884288607272086</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.7857145</v>
+      </c>
+      <c r="H25">
+        <v>7.571429</v>
+      </c>
+      <c r="I25">
+        <v>0.06488914775911858</v>
+      </c>
+      <c r="J25">
+        <v>0.04421580718805042</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>84.85695366666668</v>
+      </c>
+      <c r="N25">
+        <v>254.570861</v>
+      </c>
+      <c r="O25">
+        <v>0.138086767645209</v>
+      </c>
+      <c r="P25">
+        <v>0.1520460408212704</v>
+      </c>
+      <c r="Q25">
+        <v>321.2441999217282</v>
+      </c>
+      <c r="R25">
+        <v>1927.465199530369</v>
+      </c>
+      <c r="S25">
+        <v>0.008960332669309044</v>
+      </c>
+      <c r="T25">
+        <v>0.006722838424659736</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.7857145</v>
+      </c>
+      <c r="H26">
+        <v>7.571429</v>
+      </c>
+      <c r="I26">
+        <v>0.06488914775911858</v>
+      </c>
+      <c r="J26">
+        <v>0.04421580718805042</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>169.2560955</v>
+      </c>
+      <c r="N26">
+        <v>338.512191</v>
+      </c>
+      <c r="O26">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P26">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q26">
+        <v>640.7552549477348</v>
+      </c>
+      <c r="R26">
+        <v>2563.021019790939</v>
+      </c>
+      <c r="S26">
+        <v>0.01787232343911122</v>
+      </c>
+      <c r="T26">
+        <v>0.008939604304793375</v>
       </c>
     </row>
   </sheetData>
